--- a/menimgUrl.xlsx
+++ b/menimgUrl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skyarup\testScript1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skyarup\TobbiSwiping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC53F10A-2DB1-43B0-9EB9-AA9358F72EF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC21A6CF-DFB8-4F7B-8801-5CF8DD954FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7DC4174-90C4-499F-8B1B-BF313F05EF20}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13170" xr2:uid="{EC64C2F6-AAEA-4317-BC51-9C7CBF0D9778}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,186 +25,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>image/1-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/1-original.jpg</t>
-  </si>
-  <si>
-    <t>image/2-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/2-original.jpg</t>
-  </si>
-  <si>
-    <t>image/3-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/4-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/5-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/3-original.jpg</t>
-  </si>
-  <si>
-    <t>image/4-original.jpg</t>
-  </si>
-  <si>
-    <t>image/5-original.jpg</t>
-  </si>
-  <si>
-    <t>Blur</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Original</t>
   </si>
   <si>
-    <t>image/6-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/7-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/8-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/9-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/10-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/11-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/12-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/13-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/14-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/15-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/16-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/17-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/18-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/20-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/21-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/22-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/23-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/24-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/25-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/26-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/27-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/28-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/29-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/30-blur.jpg</t>
-  </si>
-  <si>
-    <t>image/6-original.jpg</t>
-  </si>
-  <si>
-    <t>image/7-original.jpg</t>
-  </si>
-  <si>
-    <t>image/8-original.jpg</t>
-  </si>
-  <si>
-    <t>image/9-original.jpg</t>
-  </si>
-  <si>
-    <t>image/10-original.jpg</t>
-  </si>
-  <si>
-    <t>image/11-original.jpg</t>
-  </si>
-  <si>
-    <t>image/12-original.jpg</t>
-  </si>
-  <si>
-    <t>image/13-original.jpg</t>
-  </si>
-  <si>
-    <t>image/14-original.jpg</t>
-  </si>
-  <si>
-    <t>image/15-original.jpg</t>
-  </si>
-  <si>
-    <t>image/16-original.jpg</t>
-  </si>
-  <si>
-    <t>image/17-original.jpg</t>
-  </si>
-  <si>
-    <t>image/18-original.jpg</t>
-  </si>
-  <si>
-    <t>image/20-original.jpg</t>
-  </si>
-  <si>
-    <t>image/21-original.jpg</t>
-  </si>
-  <si>
-    <t>image/22-original.jpg</t>
-  </si>
-  <si>
-    <t>image/23-original.jpg</t>
-  </si>
-  <si>
-    <t>image/24-original.jpg</t>
-  </si>
-  <si>
-    <t>image/25-original.jpg</t>
-  </si>
-  <si>
-    <t>image/26-original.jpg</t>
-  </si>
-  <si>
-    <t>image/27-original.jpg</t>
-  </si>
-  <si>
-    <t>image/28-original.jpg</t>
-  </si>
-  <si>
-    <t>image/29-original.jpg</t>
-  </si>
-  <si>
-    <t>image/30-original.jpg</t>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>men/1-original.jpg</t>
+  </si>
+  <si>
+    <t>men/1-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/10-original.jpg</t>
+  </si>
+  <si>
+    <t>men/10-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/11-original.jpg</t>
+  </si>
+  <si>
+    <t>men/11-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/12-original.jpg</t>
+  </si>
+  <si>
+    <t>men/12-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/13-original.jpg</t>
+  </si>
+  <si>
+    <t>men/13-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/14-original.jpg</t>
+  </si>
+  <si>
+    <t>men/14-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/15-original.jpg</t>
+  </si>
+  <si>
+    <t>men/15-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/16-original.jpg</t>
+  </si>
+  <si>
+    <t>men/16-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/17-original.jpg</t>
+  </si>
+  <si>
+    <t>men/17-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/18-original.jpg</t>
+  </si>
+  <si>
+    <t>men/18-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/19-original.jpg</t>
+  </si>
+  <si>
+    <t>men/19-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/2-original.jpg</t>
+  </si>
+  <si>
+    <t>men/2-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/20-original.jpg</t>
+  </si>
+  <si>
+    <t>men/20-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/21-original.jpg</t>
+  </si>
+  <si>
+    <t>men/21-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/22-original.jpg</t>
+  </si>
+  <si>
+    <t>men/22-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/23-original.jpg</t>
+  </si>
+  <si>
+    <t>men/23-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/24-original.jpg</t>
+  </si>
+  <si>
+    <t>men/24-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/25-original.jpg</t>
+  </si>
+  <si>
+    <t>men/25-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/26-original.jpg</t>
+  </si>
+  <si>
+    <t>men/26-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/27-original.jpg</t>
+  </si>
+  <si>
+    <t>men/27-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/28-original.jpg</t>
+  </si>
+  <si>
+    <t>men/28-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/29-original.jpg</t>
+  </si>
+  <si>
+    <t>men/29-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/3-original.jpg</t>
+  </si>
+  <si>
+    <t>men/3-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/30-original.jpg</t>
+  </si>
+  <si>
+    <t>men/30-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/4-original.jpg</t>
+  </si>
+  <si>
+    <t>men/4-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/5-original.jpg</t>
+  </si>
+  <si>
+    <t>men/5-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/6-original.jpg</t>
+  </si>
+  <si>
+    <t>men/6-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/7-original.jpg</t>
+  </si>
+  <si>
+    <t>men/7-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/8-original.jpg</t>
+  </si>
+  <si>
+    <t>men/8-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men/9-original.jpg</t>
+  </si>
+  <si>
+    <t>men/9-scramble.jpg</t>
   </si>
 </sst>
 </file>
@@ -555,46 +561,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FE25F5-6653-404D-8F6A-E76F2574D390}">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0342BB-55E3-4CF1-A908-8BC32419F211}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -602,18 +604,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,194 +623,202 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/menimgUrl.xlsx
+++ b/menimgUrl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\skyarup\TobbiSwiping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC21A6CF-DFB8-4F7B-8801-5CF8DD954FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B1477-2859-463F-9EA0-FCD5438A7E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13170" xr2:uid="{EC64C2F6-AAEA-4317-BC51-9C7CBF0D9778}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13170" xr2:uid="{8FDA86ED-7987-41A8-B38B-CE9B64405113}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Original</t>
   </si>
@@ -33,184 +33,208 @@
     <t>Scramble</t>
   </si>
   <si>
-    <t>men/1-original.jpg</t>
-  </si>
-  <si>
-    <t>men/1-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/10-original.jpg</t>
-  </si>
-  <si>
-    <t>men/10-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/11-original.jpg</t>
-  </si>
-  <si>
-    <t>men/11-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/12-original.jpg</t>
-  </si>
-  <si>
-    <t>men/12-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/13-original.jpg</t>
-  </si>
-  <si>
-    <t>men/13-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/14-original.jpg</t>
-  </si>
-  <si>
-    <t>men/14-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/15-original.jpg</t>
-  </si>
-  <si>
-    <t>men/15-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/16-original.jpg</t>
-  </si>
-  <si>
-    <t>men/16-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/17-original.jpg</t>
-  </si>
-  <si>
-    <t>men/17-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/18-original.jpg</t>
-  </si>
-  <si>
-    <t>men/18-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/19-original.jpg</t>
-  </si>
-  <si>
-    <t>men/19-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/2-original.jpg</t>
-  </si>
-  <si>
-    <t>men/2-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/20-original.jpg</t>
-  </si>
-  <si>
-    <t>men/20-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/21-original.jpg</t>
-  </si>
-  <si>
-    <t>men/21-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/22-original.jpg</t>
-  </si>
-  <si>
-    <t>men/22-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/23-original.jpg</t>
-  </si>
-  <si>
-    <t>men/23-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/24-original.jpg</t>
-  </si>
-  <si>
-    <t>men/24-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/25-original.jpg</t>
-  </si>
-  <si>
-    <t>men/25-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/26-original.jpg</t>
-  </si>
-  <si>
-    <t>men/26-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/27-original.jpg</t>
-  </si>
-  <si>
-    <t>men/27-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/28-original.jpg</t>
-  </si>
-  <si>
-    <t>men/28-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/29-original.jpg</t>
-  </si>
-  <si>
-    <t>men/29-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/3-original.jpg</t>
-  </si>
-  <si>
-    <t>men/3-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/30-original.jpg</t>
-  </si>
-  <si>
-    <t>men/30-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/4-original.jpg</t>
-  </si>
-  <si>
-    <t>men/4-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/5-original.jpg</t>
-  </si>
-  <si>
-    <t>men/5-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/6-original.jpg</t>
-  </si>
-  <si>
-    <t>men/6-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/7-original.jpg</t>
-  </si>
-  <si>
-    <t>men/7-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/8-original.jpg</t>
-  </si>
-  <si>
-    <t>men/8-scramble.jpg</t>
-  </si>
-  <si>
-    <t>men/9-original.jpg</t>
-  </si>
-  <si>
-    <t>men/9-scramble.jpg</t>
+    <t>men1/1-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/1-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/10-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/10-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/11-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/11-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/12-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/12-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/13-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/13-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/14-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/14-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/15-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/15-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/16-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/16-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/17-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/17-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/18-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/18-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/19-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/19-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/2-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/2-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/20-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/20-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/21-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/21-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/22-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/22-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/23-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/23-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/24-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/24-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/25-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/25-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/26-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/26-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/27-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/27-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/28-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/28-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/29-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/29-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/3-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/3-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/30-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/30-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/31-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/31-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/32-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/32-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/33-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/33-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/34-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/34-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/4-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/4-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/5-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/5-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/6-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/6-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/7-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/7-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/8-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/8-scramble.jpg</t>
+  </si>
+  <si>
+    <t>men1/9-original.jpg</t>
+  </si>
+  <si>
+    <t>men1/9-scramble.jpg</t>
   </si>
 </sst>
 </file>
@@ -561,14 +585,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0342BB-55E3-4CF1-A908-8BC32419F211}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4718F273-89CF-4E22-8720-94CD7BA3ABD5}">
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A2" sqref="A2:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -818,6 +846,38 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
